--- a/biology/Virologie/RmYN02/RmYN02.xlsx
+++ b/biology/Virologie/RmYN02/RmYN02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coronavirus de chauve-souris RmYN02 lié au SRAS ou Bat SL-CoV-RmYN02 est un betacoronavirus qui infecte la chauve-souris Rhinolophus malayanus. Cette souche de coronavirus lié au syndrome respiratoire aigu sévère a été découverte dans des excréments de chauves-souris collectés entre mai et octobre 2019 sur des sites du xian de Mengla, dans la province du Yunnan, en Chine[2].
-C'est la deuxième souche la plus proche du SARS-CoV-2, la souche virale responsable de la COVID-19, partageant 93,3% d'identité nucléotidique à l'échelle du génome viral complet. La SL-CoV-RmYN02 contient une insertion au site de clivage S1 / S2 dans la protéine de pointe, comme dans le SARS-CoV-2, suggérant que de tels évènements d'insertion peuvent se produire naturellement, ce qui a fait l'objet d'un article publié dans Nature par des scientifiques de l'Institut de virologie de Wuhan[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coronavirus de chauve-souris RmYN02 lié au SRAS ou Bat SL-CoV-RmYN02 est un betacoronavirus qui infecte la chauve-souris Rhinolophus malayanus. Cette souche de coronavirus lié au syndrome respiratoire aigu sévère a été découverte dans des excréments de chauves-souris collectés entre mai et octobre 2019 sur des sites du xian de Mengla, dans la province du Yunnan, en Chine.
+C'est la deuxième souche la plus proche du SARS-CoV-2, la souche virale responsable de la COVID-19, partageant 93,3% d'identité nucléotidique à l'échelle du génome viral complet. La SL-CoV-RmYN02 contient une insertion au site de clivage S1 / S2 dans la protéine de pointe, comme dans le SARS-CoV-2, suggérant que de tels évènements d'insertion peuvent se produire naturellement, ce qui a fait l'objet d'un article publié dans Nature par des scientifiques de l'Institut de virologie de Wuhan.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre phylogénétique de la branche des coronavirus apparentés au SARS-CoV-2, tel qu'obtenu sur la base du gène RdRp, est le suivant[3],[4],[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre phylogénétique de la branche des coronavirus apparentés au SARS-CoV-2, tel qu'obtenu sur la base du gène RdRp, est le suivant :
 Animal hôte :
 chauve-souris
 pangolin
@@ -547,9 +561,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bat SL-CoV-RmYN02 a été collecté entre mai et octobre 2019 par l'Institut de virologie de Wuhan, sur la base d'une analyse de 302 échantillons de matière fécale prélevés sur 227 chauves-souris dans le xian de Mengla, dans la province du Yunnan, en Chine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bat SL-CoV-RmYN02 a été collecté entre mai et octobre 2019 par l'Institut de virologie de Wuhan, sur la base d'une analyse de 302 échantillons de matière fécale prélevés sur 227 chauves-souris dans le xian de Mengla, dans la province du Yunnan, en Chine.
 </t>
         </is>
       </c>
